--- a/Homework01 - Analysis Of Customer Behaviors/Behaviors.xlsx
+++ b/Homework01 - Analysis Of Customer Behaviors/Behaviors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\90 Nida\7105 CRM\01 Homework01 - Analysis Of Customer Behaviors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB92A5E9-ECF1-451A-A478-3BB0A78D3910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9892505-DD5D-43B9-9950-BF4651E3134A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -781,9 +781,9 @@
   </sheetPr>
   <dimension ref="A1:BL64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BD18" sqref="BD18"/>
+    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13275,6 +13275,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="เอกสาร" ma:contentTypeID="0x01010029AFC54228BB644B88085DE89773D991" ma:contentTypeVersion="8" ma:contentTypeDescription="สร้างเอกสารใหม่" ma:contentTypeScope="" ma:versionID="ee0fcebf90491b1eb29707a0c6cde0a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="37ca40dd-0408-4bca-ab60-ac7e17dba21f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ab8030211cdac8f4386b98f339065783" ns2:_="">
     <xsd:import namespace="37ca40dd-0408-4bca-ab60-ac7e17dba21f"/>
@@ -13444,22 +13459,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{223ECBDF-B748-4BC6-95CD-274BA2D9FC25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C9FD6E0-150A-454E-B4F3-D7CC24CBE67C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98409889-DB1E-468A-9369-C445E81B6AFC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13475,21 +13492,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C9FD6E0-150A-454E-B4F3-D7CC24CBE67C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{223ECBDF-B748-4BC6-95CD-274BA2D9FC25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>